--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>F2rl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -531,10 +534,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.662448666666667</v>
+        <v>0.2416746666666667</v>
       </c>
       <c r="N2">
-        <v>7.987346000000001</v>
+        <v>0.725024</v>
       </c>
       <c r="O2">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="P2">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="Q2">
-        <v>0.06530187844733333</v>
+        <v>0.008356747461333334</v>
       </c>
       <c r="R2">
-        <v>0.391811270684</v>
+        <v>0.050140484768</v>
       </c>
       <c r="S2">
-        <v>0.9268761553538212</v>
+        <v>0.08321776967690767</v>
       </c>
       <c r="T2">
-        <v>0.9500328399529846</v>
+        <v>0.08321776967690767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +587,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,10 +596,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.210048</v>
+        <v>2.662448666666667</v>
       </c>
       <c r="N3">
-        <v>0.420096</v>
+        <v>7.987346000000001</v>
       </c>
       <c r="O3">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="P3">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="Q3">
-        <v>0.005151847296000001</v>
+        <v>0.09206348122033332</v>
       </c>
       <c r="R3">
-        <v>0.020607389184</v>
+        <v>0.552380887322</v>
       </c>
       <c r="S3">
-        <v>0.07312384464617888</v>
+        <v>0.9167822303230924</v>
       </c>
       <c r="T3">
-        <v>0.04996716004701549</v>
+        <v>0.9167822303230924</v>
       </c>
     </row>
   </sheetData>
